--- a/data/trans_dic/P20_3_R-Urba-trans_dic.xlsx
+++ b/data/trans_dic/P20_3_R-Urba-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -497,7 +498,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -521,7 +522,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha tenido ganas de hablar porque estaba angustiado/a, pero no lo ha hecho</t>
+          <t>Población que ha tenido ganas de hablar porque estaba angustiado/a, pero no lo ha hecho (tasa de respuesta: 99,83%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -601,32 +602,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>20,22%</t>
+          <t>20,12%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>19,54%</t>
+          <t>19,99%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>31,04%</t>
+          <t>30,96%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>25,97%</t>
+          <t>26,36%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>25,87%</t>
+          <t>25,78%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>22,89%</t>
+          <t>23,31%</t>
         </is>
       </c>
     </row>
@@ -639,32 +640,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>16,95; 24,39</t>
+          <t>16,87; 23,8</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>16,05; 24,37</t>
+          <t>16,42; 24,76</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>27,77; 34,38</t>
+          <t>27,67; 34,11</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>22,63; 29,18</t>
+          <t>22,93; 29,67</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>23,39; 28,34</t>
+          <t>23,48; 28,17</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>20,49; 25,62</t>
+          <t>20,55; 26,12</t>
         </is>
       </c>
     </row>
@@ -686,27 +687,27 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>18,31%</t>
+          <t>17,07%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>30,33%</t>
+          <t>30,29%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>27,62%</t>
+          <t>28,28%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>24,67%</t>
+          <t>24,65%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>22,98%</t>
+          <t>22,7%</t>
         </is>
       </c>
     </row>
@@ -719,32 +720,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>15,31; 23,29</t>
+          <t>15,56; 23,44</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>14,12; 24,6</t>
+          <t>13,56; 22,56</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>26,9; 34,31</t>
+          <t>26,41; 34,19</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>23,62; 31,64</t>
+          <t>24,39; 32,48</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>21,95; 27,54</t>
+          <t>22,12; 27,59</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>20,2; 26,88</t>
+          <t>19,93; 25,99</t>
         </is>
       </c>
     </row>
@@ -766,7 +767,7 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>11,61%</t>
+          <t>11,89%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
@@ -776,7 +777,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>23,43%</t>
+          <t>24,89%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -786,7 +787,7 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>17,45%</t>
+          <t>18,27%</t>
         </is>
       </c>
     </row>
@@ -799,32 +800,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>11,43; 24,09</t>
+          <t>11,4; 24,13</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>6,51; 18,34</t>
+          <t>6,53; 18,57</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>19,18; 32,02</t>
+          <t>18,76; 32,26</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>16,89; 31,45</t>
+          <t>18,27; 33,22</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>16,71; 26,38</t>
+          <t>17,26; 26,71</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>12,94; 22,56</t>
+          <t>13,21; 23,26</t>
         </is>
       </c>
     </row>
@@ -841,32 +842,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>19,33%</t>
+          <t>19,29%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>18,1%</t>
+          <t>17,84%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>30,15%</t>
+          <t>30,09%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>26,32%</t>
+          <t>26,94%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>24,87%</t>
+          <t>24,81%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>22,29%</t>
+          <t>22,48%</t>
         </is>
       </c>
     </row>
@@ -879,32 +880,39 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>17,03; 21,81</t>
+          <t>17,26; 21,92</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>15,31; 21,09</t>
+          <t>15,5; 21,06</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>27,96; 32,68</t>
+          <t>27,65; 32,38</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>24,08; 28,97</t>
+          <t>24,59; 29,43</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>23,05; 26,56</t>
+          <t>23,03; 26,52</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>20,56; 24,41</t>
+          <t>20,8; 24,51</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
@@ -921,4 +929,595 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que ha tenido ganas de hablar porque estaba angustiado/a, pero no lo ha hecho (tasa de respuesta: 99,83%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Urbano</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>130.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>105.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>240.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>183.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>370.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>288.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>330023</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>328683</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>554458</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>471316</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>884482</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>800000</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>276710; 390349</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>270032; 407195</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>495572; 610943</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>409937; 530416</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>805457; 966625</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>705447; 896433</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>98.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>73.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>180.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>139.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>278.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>212.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>262434</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>232811</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>427032</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>389652</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>689466</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>622463</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>215707; 324964</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>184935; 307708</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>372313; 481985</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>336062; 447577</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>618476; 771596</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>546395; 712651</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>45.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>70.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>49.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>72934</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>49700</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>105587</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>100165</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>178521</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>149865</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>48195; 102007</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>27288; 77614</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>77261; 132894</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>73503; 133652</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>144060; 222968</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>108335; 190792</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>253.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>193.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>465.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>356.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>718.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>549.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>665392</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>611194</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>1087077</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>961134</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>1752469</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>1572328</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>595551; 756117</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>531098; 721421</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>998957; 1169828</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>877350; 1050107</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>1626737; 1873110</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>1455104; 1714420</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>